--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.6946328753043</v>
+        <v>33.97243866666667</v>
       </c>
       <c r="H2">
-        <v>33.6946328753043</v>
+        <v>101.917316</v>
       </c>
       <c r="I2">
-        <v>0.5665097164221508</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="J2">
-        <v>0.5665097164221508</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>17.4636674743089</v>
+        <v>0.03759866666666666</v>
       </c>
       <c r="N2">
-        <v>17.4636674743089</v>
+        <v>0.112796</v>
       </c>
       <c r="O2">
-        <v>0.4642415735766184</v>
+        <v>0.0009855200908059658</v>
       </c>
       <c r="P2">
-        <v>0.4642415735766184</v>
+        <v>0.0009855200908059658</v>
       </c>
       <c r="Q2">
-        <v>588.431864203231</v>
+        <v>1.277318397281778</v>
       </c>
       <c r="R2">
-        <v>588.431864203231</v>
+        <v>11.495865575536</v>
       </c>
       <c r="S2">
-        <v>0.2629973621982631</v>
+        <v>0.000500689329506913</v>
       </c>
       <c r="T2">
-        <v>0.2629973621982631</v>
+        <v>0.000500689329506913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.6946328753043</v>
+        <v>33.97243866666667</v>
       </c>
       <c r="H3">
-        <v>33.6946328753043</v>
+        <v>101.917316</v>
       </c>
       <c r="I3">
-        <v>0.5665097164221508</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="J3">
-        <v>0.5665097164221508</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.1539619416975</v>
+        <v>17.531118</v>
       </c>
       <c r="N3">
-        <v>20.1539619416975</v>
+        <v>52.59335400000001</v>
       </c>
       <c r="O3">
-        <v>0.5357584264233817</v>
+        <v>0.4595181301630405</v>
       </c>
       <c r="P3">
-        <v>0.5357584264233817</v>
+        <v>0.4595181301630404</v>
       </c>
       <c r="Q3">
-        <v>679.0803486083522</v>
+        <v>595.5748310130962</v>
       </c>
       <c r="R3">
-        <v>679.0803486083522</v>
+        <v>5360.173479117864</v>
       </c>
       <c r="S3">
-        <v>0.3035123542238877</v>
+        <v>0.2334562497852736</v>
       </c>
       <c r="T3">
-        <v>0.3035123542238877</v>
+        <v>0.2334562497852736</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.0718335414887</v>
+        <v>33.97243866666667</v>
       </c>
       <c r="H4">
-        <v>10.0718335414887</v>
+        <v>101.917316</v>
       </c>
       <c r="I4">
-        <v>0.1693382914886067</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="J4">
-        <v>0.1693382914886067</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.4636674743089</v>
+        <v>20.54619066666666</v>
       </c>
       <c r="N4">
-        <v>17.4636674743089</v>
+        <v>61.638572</v>
       </c>
       <c r="O4">
-        <v>0.4642415735766184</v>
+        <v>0.5385479190271824</v>
       </c>
       <c r="P4">
-        <v>0.4642415735766184</v>
+        <v>0.5385479190271824</v>
       </c>
       <c r="Q4">
-        <v>175.8911518251496</v>
+        <v>698.0042022569725</v>
       </c>
       <c r="R4">
-        <v>175.8911518251496</v>
+        <v>6282.037820312752</v>
       </c>
       <c r="S4">
-        <v>0.07861387490744687</v>
+        <v>0.2736070010146067</v>
       </c>
       <c r="T4">
-        <v>0.07861387490744687</v>
+        <v>0.2736070010146067</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.0718335414887</v>
+        <v>33.97243866666667</v>
       </c>
       <c r="H5">
-        <v>10.0718335414887</v>
+        <v>101.917316</v>
       </c>
       <c r="I5">
-        <v>0.1693382914886067</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="J5">
-        <v>0.1693382914886067</v>
+        <v>0.5080457863598148</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>20.1539619416975</v>
+        <v>0.03618366666666666</v>
       </c>
       <c r="N5">
-        <v>20.1539619416975</v>
+        <v>0.108551</v>
       </c>
       <c r="O5">
-        <v>0.5357584264233817</v>
+        <v>0.0009484307189712258</v>
       </c>
       <c r="P5">
-        <v>0.5357584264233817</v>
+        <v>0.0009484307189712258</v>
       </c>
       <c r="Q5">
-        <v>202.9873498782756</v>
+        <v>1.229247396568444</v>
       </c>
       <c r="R5">
-        <v>202.9873498782756</v>
+        <v>11.063226569116</v>
       </c>
       <c r="S5">
-        <v>0.09072441658115986</v>
+        <v>0.0004818462304275409</v>
       </c>
       <c r="T5">
-        <v>0.09072441658115986</v>
+        <v>0.0004818462304275409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>15.5970332635358</v>
+        <v>0.1382523333333333</v>
       </c>
       <c r="H6">
-        <v>15.5970332635358</v>
+        <v>0.414757</v>
       </c>
       <c r="I6">
-        <v>0.2622337784136703</v>
+        <v>0.00206751467251392</v>
       </c>
       <c r="J6">
-        <v>0.2622337784136703</v>
+        <v>0.00206751467251392</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>17.4636674743089</v>
+        <v>0.03759866666666666</v>
       </c>
       <c r="N6">
-        <v>17.4636674743089</v>
+        <v>0.112796</v>
       </c>
       <c r="O6">
-        <v>0.4642415735766184</v>
+        <v>0.0009855200908059658</v>
       </c>
       <c r="P6">
-        <v>0.4642415735766184</v>
+        <v>0.0009855200908059658</v>
       </c>
       <c r="Q6">
-        <v>272.3814025001241</v>
+        <v>0.005198103396888889</v>
       </c>
       <c r="R6">
-        <v>272.3814025001241</v>
+        <v>0.046782930572</v>
       </c>
       <c r="S6">
-        <v>0.1217398219357046</v>
+        <v>2.037577247798585E-06</v>
       </c>
       <c r="T6">
-        <v>0.1217398219357046</v>
+        <v>2.037577247798585E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>15.5970332635358</v>
+        <v>0.1382523333333333</v>
       </c>
       <c r="H7">
-        <v>15.5970332635358</v>
+        <v>0.414757</v>
       </c>
       <c r="I7">
-        <v>0.2622337784136703</v>
+        <v>0.00206751467251392</v>
       </c>
       <c r="J7">
-        <v>0.2622337784136703</v>
+        <v>0.00206751467251392</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.1539619416975</v>
+        <v>17.531118</v>
       </c>
       <c r="N7">
-        <v>20.1539619416975</v>
+        <v>52.59335400000001</v>
       </c>
       <c r="O7">
-        <v>0.5357584264233817</v>
+        <v>0.4595181301630405</v>
       </c>
       <c r="P7">
-        <v>0.5357584264233817</v>
+        <v>0.4595181301630404</v>
       </c>
       <c r="Q7">
-        <v>314.3420147966905</v>
+        <v>2.423717969442</v>
       </c>
       <c r="R7">
-        <v>314.3420147966905</v>
+        <v>21.813461724978</v>
       </c>
       <c r="S7">
-        <v>0.1404939564779658</v>
+        <v>0.0009500604763982475</v>
       </c>
       <c r="T7">
-        <v>0.1404939564779658</v>
+        <v>0.0009500604763982473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.114090727310022</v>
+        <v>0.1382523333333333</v>
       </c>
       <c r="H8">
-        <v>0.114090727310022</v>
+        <v>0.414757</v>
       </c>
       <c r="I8">
-        <v>0.001918213675572323</v>
+        <v>0.00206751467251392</v>
       </c>
       <c r="J8">
-        <v>0.001918213675572323</v>
+        <v>0.00206751467251392</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.4636674743089</v>
+        <v>20.54619066666666</v>
       </c>
       <c r="N8">
-        <v>17.4636674743089</v>
+        <v>61.638572</v>
       </c>
       <c r="O8">
-        <v>0.4642415735766184</v>
+        <v>0.5385479190271824</v>
       </c>
       <c r="P8">
-        <v>0.4642415735766184</v>
+        <v>0.5385479190271824</v>
       </c>
       <c r="Q8">
-        <v>1.992442523644277</v>
+        <v>2.840558800778222</v>
       </c>
       <c r="R8">
-        <v>1.992442523644277</v>
+        <v>25.565029207004</v>
       </c>
       <c r="S8">
-        <v>0.0008905145352038843</v>
+        <v>0.001113455724440538</v>
       </c>
       <c r="T8">
-        <v>0.0008905145352038843</v>
+        <v>0.001113455724440538</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1382523333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.414757</v>
+      </c>
+      <c r="I9">
+        <v>0.00206751467251392</v>
+      </c>
+      <c r="J9">
+        <v>0.00206751467251392</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.03618366666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.108551</v>
+      </c>
+      <c r="O9">
+        <v>0.0009484307189712258</v>
+      </c>
+      <c r="P9">
+        <v>0.0009484307189712258</v>
+      </c>
+      <c r="Q9">
+        <v>0.005002476345222222</v>
+      </c>
+      <c r="R9">
+        <v>0.04502228710699999</v>
+      </c>
+      <c r="S9">
+        <v>1.960894427335935E-06</v>
+      </c>
+      <c r="T9">
+        <v>1.960894427335935E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.21179933333333</v>
+      </c>
+      <c r="H10">
+        <v>30.635398</v>
+      </c>
+      <c r="I10">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="J10">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03759866666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.112796</v>
+      </c>
+      <c r="O10">
+        <v>0.0009855200908059658</v>
+      </c>
+      <c r="P10">
+        <v>0.0009855200908059658</v>
+      </c>
+      <c r="Q10">
+        <v>0.3839500392008888</v>
+      </c>
+      <c r="R10">
+        <v>3.455550352807999</v>
+      </c>
+      <c r="S10">
+        <v>0.0001505025591902108</v>
+      </c>
+      <c r="T10">
+        <v>0.0001505025591902108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.21179933333333</v>
+      </c>
+      <c r="H11">
+        <v>30.635398</v>
+      </c>
+      <c r="I11">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="J11">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.531118</v>
+      </c>
+      <c r="N11">
+        <v>52.59335400000001</v>
+      </c>
+      <c r="O11">
+        <v>0.4595181301630405</v>
+      </c>
+      <c r="P11">
+        <v>0.4595181301630404</v>
+      </c>
+      <c r="Q11">
+        <v>179.024259104988</v>
+      </c>
+      <c r="R11">
+        <v>1611.218331944892</v>
+      </c>
+      <c r="S11">
+        <v>0.07017477901163792</v>
+      </c>
+      <c r="T11">
+        <v>0.07017477901163793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10.21179933333333</v>
+      </c>
+      <c r="H12">
+        <v>30.635398</v>
+      </c>
+      <c r="I12">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="J12">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>20.54619066666666</v>
+      </c>
+      <c r="N12">
+        <v>61.638572</v>
+      </c>
+      <c r="O12">
+        <v>0.5385479190271824</v>
+      </c>
+      <c r="P12">
+        <v>0.5385479190271824</v>
+      </c>
+      <c r="Q12">
+        <v>209.8135761524062</v>
+      </c>
+      <c r="R12">
+        <v>1888.322185371656</v>
+      </c>
+      <c r="S12">
+        <v>0.0822437216818865</v>
+      </c>
+      <c r="T12">
+        <v>0.08224372168188651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.21179933333333</v>
+      </c>
+      <c r="H13">
+        <v>30.635398</v>
+      </c>
+      <c r="I13">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="J13">
+        <v>0.1527138417514438</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03618366666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.108551</v>
+      </c>
+      <c r="O13">
+        <v>0.0009484307189712258</v>
+      </c>
+      <c r="P13">
+        <v>0.0009484307189712258</v>
+      </c>
+      <c r="Q13">
+        <v>0.3695003431442221</v>
+      </c>
+      <c r="R13">
+        <v>3.325503088297999</v>
+      </c>
+      <c r="S13">
+        <v>0.0001448384987291799</v>
+      </c>
+      <c r="T13">
+        <v>0.0001448384987291799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>22.42012733333334</v>
+      </c>
+      <c r="H14">
+        <v>67.26038200000001</v>
+      </c>
+      <c r="I14">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="J14">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03759866666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.112796</v>
+      </c>
+      <c r="O14">
+        <v>0.0009855200908059658</v>
+      </c>
+      <c r="P14">
+        <v>0.0009855200908059658</v>
+      </c>
+      <c r="Q14">
+        <v>0.8429668942302223</v>
+      </c>
+      <c r="R14">
+        <v>7.586702048072</v>
+      </c>
+      <c r="S14">
+        <v>0.0003304301652327543</v>
+      </c>
+      <c r="T14">
+        <v>0.0003304301652327543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.114090727310022</v>
-      </c>
-      <c r="H9">
-        <v>0.114090727310022</v>
-      </c>
-      <c r="I9">
-        <v>0.001918213675572323</v>
-      </c>
-      <c r="J9">
-        <v>0.001918213675572323</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>20.1539619416975</v>
-      </c>
-      <c r="N9">
-        <v>20.1539619416975</v>
-      </c>
-      <c r="O9">
-        <v>0.5357584264233817</v>
-      </c>
-      <c r="P9">
-        <v>0.5357584264233817</v>
-      </c>
-      <c r="Q9">
-        <v>2.299380176106771</v>
-      </c>
-      <c r="R9">
-        <v>2.299380176106771</v>
-      </c>
-      <c r="S9">
-        <v>0.001027699140368439</v>
-      </c>
-      <c r="T9">
-        <v>0.001027699140368439</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>22.42012733333334</v>
+      </c>
+      <c r="H15">
+        <v>67.26038200000001</v>
+      </c>
+      <c r="I15">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="J15">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>17.531118</v>
+      </c>
+      <c r="N15">
+        <v>52.59335400000001</v>
+      </c>
+      <c r="O15">
+        <v>0.4595181301630405</v>
+      </c>
+      <c r="P15">
+        <v>0.4595181301630404</v>
+      </c>
+      <c r="Q15">
+        <v>393.0498978556921</v>
+      </c>
+      <c r="R15">
+        <v>3537.449080701229</v>
+      </c>
+      <c r="S15">
+        <v>0.1540695649878076</v>
+      </c>
+      <c r="T15">
+        <v>0.1540695649878076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>22.42012733333334</v>
+      </c>
+      <c r="H16">
+        <v>67.26038200000001</v>
+      </c>
+      <c r="I16">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="J16">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>20.54619066666666</v>
+      </c>
+      <c r="N16">
+        <v>61.638572</v>
+      </c>
+      <c r="O16">
+        <v>0.5385479190271824</v>
+      </c>
+      <c r="P16">
+        <v>0.5385479190271824</v>
+      </c>
+      <c r="Q16">
+        <v>460.6482109616116</v>
+      </c>
+      <c r="R16">
+        <v>4145.833898654504</v>
+      </c>
+      <c r="S16">
+        <v>0.1805670726858313</v>
+      </c>
+      <c r="T16">
+        <v>0.1805670726858313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>22.42012733333334</v>
+      </c>
+      <c r="H17">
+        <v>67.26038200000001</v>
+      </c>
+      <c r="I17">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="J17">
+        <v>0.335285062491751</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03618366666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.108551</v>
+      </c>
+      <c r="O17">
+        <v>0.0009484307189712258</v>
+      </c>
+      <c r="P17">
+        <v>0.0009484307189712258</v>
+      </c>
+      <c r="Q17">
+        <v>0.8112424140535556</v>
+      </c>
+      <c r="R17">
+        <v>7.301181726482</v>
+      </c>
+      <c r="S17">
+        <v>0.0003179946528793637</v>
+      </c>
+      <c r="T17">
+        <v>0.0003179946528793637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1262346666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.378704</v>
+      </c>
+      <c r="I18">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="J18">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.03759866666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.112796</v>
+      </c>
+      <c r="O18">
+        <v>0.0009855200908059658</v>
+      </c>
+      <c r="P18">
+        <v>0.0009855200908059658</v>
+      </c>
+      <c r="Q18">
+        <v>0.004746255153777778</v>
+      </c>
+      <c r="R18">
+        <v>0.042716296384</v>
+      </c>
+      <c r="S18">
+        <v>1.860459628289132E-06</v>
+      </c>
+      <c r="T18">
+        <v>1.860459628289132E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.1262346666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.378704</v>
+      </c>
+      <c r="I19">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="J19">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.531118</v>
+      </c>
+      <c r="N19">
+        <v>52.59335400000001</v>
+      </c>
+      <c r="O19">
+        <v>0.4595181301630405</v>
+      </c>
+      <c r="P19">
+        <v>0.4595181301630404</v>
+      </c>
+      <c r="Q19">
+        <v>2.213034837024001</v>
+      </c>
+      <c r="R19">
+        <v>19.917313533216</v>
+      </c>
+      <c r="S19">
+        <v>0.0008674759019231067</v>
+      </c>
+      <c r="T19">
+        <v>0.0008674759019231067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.1262346666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.378704</v>
+      </c>
+      <c r="I20">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="J20">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>20.54619066666666</v>
+      </c>
+      <c r="N20">
+        <v>61.638572</v>
+      </c>
+      <c r="O20">
+        <v>0.5385479190271824</v>
+      </c>
+      <c r="P20">
+        <v>0.5385479190271824</v>
+      </c>
+      <c r="Q20">
+        <v>2.593641530076445</v>
+      </c>
+      <c r="R20">
+        <v>23.342773770688</v>
+      </c>
+      <c r="S20">
+        <v>0.001016667920417328</v>
+      </c>
+      <c r="T20">
+        <v>0.001016667920417328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1262346666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.378704</v>
+      </c>
+      <c r="I21">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="J21">
+        <v>0.001887794724476529</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.03618366666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.108551</v>
+      </c>
+      <c r="O21">
+        <v>0.0009484307189712258</v>
+      </c>
+      <c r="P21">
+        <v>0.0009484307189712258</v>
+      </c>
+      <c r="Q21">
+        <v>0.004567633100444445</v>
+      </c>
+      <c r="R21">
+        <v>0.041108697904</v>
+      </c>
+      <c r="S21">
+        <v>1.790442507805361E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.790442507805361E-06</v>
       </c>
     </row>
   </sheetData>
